--- a/Documentación/Sprint 0/Backlog.xlsx
+++ b/Documentación/Sprint 0/Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db9281259342aac5/Escritorio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\Programandito\Ciclo3 Programación\GITHub\CMDB-Proyecto-Ciclo3\Documentación\Sprint 0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="8_{70DF199A-D6DB-48BF-8566-8A4501412EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1EE23A2-9325-4A60-B4F7-145BF6792A36}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C06C572-6B52-4BA3-B5C1-78AAC157155B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{6A3938D0-5AE1-4576-848E-DAD127BF9758}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13290" xr2:uid="{6A3938D0-5AE1-4576-848E-DAD127BF9758}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="53">
   <si>
-    <t>Product Backlog</t>
-  </si>
-  <si>
     <t>Story ID</t>
   </si>
   <si>
@@ -193,13 +190,16 @@
   </si>
   <si>
     <t xml:space="preserve">Al consultar los administradores de la compañía se mostrarán los administradores activos. </t>
+  </si>
+  <si>
+    <t>Product Backlog Atom-Huron</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,20 +222,26 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -244,7 +250,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,24 +283,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Encabezado 1" xfId="1" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -301,7 +343,20 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -329,19 +384,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -408,6 +450,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -436,20 +479,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1BA43339-8E1B-418C-8A55-08EE3396737A}" name="Tabla1" displayName="Tabla1" ref="B3:J15" totalsRowShown="0" dataDxfId="6">
-  <autoFilter ref="B3:J15" xr:uid="{1BA43339-8E1B-418C-8A55-08EE3396737A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1BA43339-8E1B-418C-8A55-08EE3396737A}" name="Tabla1" displayName="Tabla1" ref="C4:K16" totalsRowShown="0" headerRowDxfId="0" dataDxfId="10">
+  <autoFilter ref="C4:K16" xr:uid="{1BA43339-8E1B-418C-8A55-08EE3396737A}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{F654688C-968A-4DC0-8F69-E388C6BB3EA4}" name="Story ID" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{7BB5B033-AEB3-48BA-BFA2-90E63A98C750}" name="Story Name" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{6BB192C1-D2C2-4E08-BB5C-5E9F4DF74A63}" name="Status" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{F159E381-EED5-45DD-936F-C48F1D4A230F}" name="Size" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{8CB8C072-F260-4CD9-9410-8B418E488E28}" name="Sprint " dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{F8458D63-B761-4F80-A4A1-C3FC9390A38D}" name="Priority" dataDxfId="0"/>
-    <tableColumn id="7" xr3:uid="{E33AAA75-AA1D-4B10-B840-4EF04833E6D6}" name="Story type " dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{989A77DA-B1C1-4B40-ABCE-AFF20EBB9372}" name="Comments" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{F400039B-706E-4A49-9C56-CAC18DFF195B}" name="Additional Comments " dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{F654688C-968A-4DC0-8F69-E388C6BB3EA4}" name="Story ID" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{7BB5B033-AEB3-48BA-BFA2-90E63A98C750}" name="Story Name" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{6BB192C1-D2C2-4E08-BB5C-5E9F4DF74A63}" name="Status" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{F159E381-EED5-45DD-936F-C48F1D4A230F}" name="Size" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{8CB8C072-F260-4CD9-9410-8B418E488E28}" name="Sprint " dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{F8458D63-B761-4F80-A4A1-C3FC9390A38D}" name="Priority" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{E33AAA75-AA1D-4B10-B840-4EF04833E6D6}" name="Story type " dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{989A77DA-B1C1-4B40-ABCE-AFF20EBB9372}" name="Comments" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{F400039B-706E-4A49-9C56-CAC18DFF195B}" name="Additional Comments " dataDxfId="1"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -750,415 +793,590 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD52E0B-1340-4F7C-88B6-DF7AA2FA1D65}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:XFC32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="62.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="1.85546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" customWidth="1"/>
+    <col min="11" max="11" width="47" style="8" customWidth="1"/>
+    <col min="12" max="14" width="11.42578125" style="6" customWidth="1"/>
+    <col min="15" max="25" width="11.42578125" style="6" hidden="1"/>
+    <col min="26" max="16382" width="11.42578125" hidden="1"/>
+    <col min="16384" max="16384" width="11.42578125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="2:11" s="6" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K1" s="7"/>
+    </row>
+    <row r="2" spans="2:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="2:11" s="6" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C4" s="11" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="D4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J3" t="s">
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="5">
+        <v>2</v>
+      </c>
+      <c r="H6" s="5">
+        <v>2</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="C7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="5">
+        <v>2</v>
+      </c>
+      <c r="H7" s="5">
+        <v>2</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="C8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="5">
+        <v>2</v>
+      </c>
+      <c r="H8" s="5">
+        <v>2</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="C9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="5">
+        <v>2</v>
+      </c>
+      <c r="H9" s="5">
+        <v>2</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="C10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="K10" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="C11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="5">
+        <v>2</v>
+      </c>
+      <c r="H11" s="5">
+        <v>2</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="C12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="5">
+        <v>2</v>
+      </c>
+      <c r="H12" s="5">
+        <v>2</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="C13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="5">
+        <v>2</v>
+      </c>
+      <c r="H13" s="5">
+        <v>2</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="C14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="5">
+        <v>2</v>
+      </c>
+      <c r="H14" s="5">
+        <v>2</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="C15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5">
+        <v>2</v>
+      </c>
+      <c r="H15" s="5">
+        <v>2</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C16" s="5"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="3:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="3:11" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="3:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C19">
         <v>1</v>
       </c>
-      <c r="G4" s="6">
-        <v>1</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="6">
-        <v>2</v>
-      </c>
-      <c r="G5" s="6">
-        <v>2</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="6">
-        <v>2</v>
-      </c>
-      <c r="G6" s="6">
-        <v>2</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="6">
-        <v>2</v>
-      </c>
-      <c r="G7" s="6">
-        <v>2</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="6">
-        <v>2</v>
-      </c>
-      <c r="G8" s="6">
-        <v>2</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="6">
-        <v>1</v>
-      </c>
-      <c r="G9" s="6">
-        <v>1</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="6">
-        <v>2</v>
-      </c>
-      <c r="G10" s="6">
-        <v>2</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="6">
-        <v>2</v>
-      </c>
-      <c r="G11" s="6">
-        <v>2</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="6">
-        <v>2</v>
-      </c>
-      <c r="G12" s="6">
-        <v>2</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="6">
-        <v>2</v>
-      </c>
-      <c r="G13" s="6">
-        <v>2</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="6">
-        <v>2</v>
-      </c>
-      <c r="G14" s="6">
-        <v>2</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="6"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="17" spans="2:2" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20">
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C21">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21">
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C22">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22">
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C23">
         <v>5</v>
       </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="7"/>
+    </row>
+    <row r="25" spans="3:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="7"/>
+    </row>
+    <row r="26" spans="3:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="7"/>
+    </row>
+    <row r="27" spans="3:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="7"/>
+    </row>
+    <row r="28" spans="3:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="7"/>
+    </row>
+    <row r="29" spans="3:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="7"/>
+    </row>
+    <row r="30" spans="3:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="7"/>
+    </row>
+    <row r="31" spans="3:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="7"/>
+    </row>
+    <row r="32" spans="3:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="7"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B18:B22">
+  <mergeCells count="1">
+    <mergeCell ref="B2:K2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C19:C23">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
